--- a/data/trans_orig/P42C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5A623D-A9DC-4A2C-A530-8958931F2ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C102F2B9-D8B7-4BAA-9948-E4E3B481388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{29DC0C15-0461-4880-B193-0C03D9D6CA8D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F56F4F2B-71E1-4A98-8025-13DFC62F72A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="123">
-  <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
+  <si>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -79,10 +79,10 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,307 +106,319 @@
     <t>17,25%</t>
   </si>
   <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2015 (Tasa respuesta: 39,91%)</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2015 (Tasa respuesta: 39,91%)</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2023 (Tasa respuesta: 36,36%)</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>89,23%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>72,82%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>25,69%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>74,31%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
 </sst>
 </file>
@@ -818,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6104BE-1972-42BC-AE77-D6B31AF86BED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335804C0-F862-452B-BFBB-EFFBB3F942F3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1845,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AD7179-BC52-4176-B509-6A34052DB7A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BB7892-3B2B-4487-8F85-6D58B0F7A87B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E13BD2-444A-4B43-9DC3-7BA7B166894E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48DC70-4403-4BF6-8394-74128D2A01B6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3015,7 +3027,7 @@
         <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3030,7 +3042,7 @@
         <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3070,13 @@
         <v>63803</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -3073,13 +3085,13 @@
         <v>63803</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3170,13 @@
         <v>43350</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3173,13 +3185,13 @@
         <v>43350</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3219,13 @@
         <v>273545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>494</v>
@@ -3222,13 +3234,13 @@
         <v>273545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3319,13 @@
         <v>126017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -3322,13 +3334,13 @@
         <v>126017</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3368,13 @@
         <v>476674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>744</v>
@@ -3371,13 +3383,13 @@
         <v>476674</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3468,13 @@
         <v>143851</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -3471,13 +3483,13 @@
         <v>143851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3517,13 @@
         <v>297473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>423</v>
@@ -3520,13 +3532,13 @@
         <v>297473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3617,13 @@
         <v>185303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -3620,13 +3632,13 @@
         <v>185303</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3666,13 @@
         <v>496357</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>690</v>
@@ -3669,13 +3681,13 @@
         <v>496357</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3766,13 @@
         <v>504342</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>711</v>
@@ -3769,13 +3781,13 @@
         <v>504342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3815,13 @@
         <v>1607853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>2468</v>
@@ -3818,13 +3830,13 @@
         <v>1607853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C102F2B9-D8B7-4BAA-9948-E4E3B481388E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6254D3A2-66EA-4760-BA4A-BB6FCF629C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F56F4F2B-71E1-4A98-8025-13DFC62F72A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96B1911E-797E-4159-9C37-5B4E7BD9DFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="125">
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -79,10 +79,10 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,76 +91,76 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,121 +169,121 @@
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2015 (Tasa respuesta: 39,91%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2016 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,29%</t>
+    <t>17,3%</t>
   </si>
   <si>
     <t>22,84%</t>
@@ -295,25 +295,25 @@
     <t>77,16%</t>
   </si>
   <si>
-    <t>82,71%</t>
+    <t>82,7%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -337,13 +337,7 @@
     <t>95,54%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
     <t>10,77%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
   </si>
   <si>
     <t>89,23%</t>
@@ -830,7 +824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335804C0-F862-452B-BFBB-EFFBB3F942F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8B24B-4A44-4F4F-AE18-E64A59BE4602}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1857,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BB7892-3B2B-4487-8F85-6D58B0F7A87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361E8D19-EC57-4530-A3CE-40AA509BE1D2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC48DC70-4403-4BF6-8394-74128D2A01B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFD70ED-5822-4FC9-8895-04429F64211E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,10 +3164,10 @@
         <v>43350</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -3185,10 +3179,10 @@
         <v>43350</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>21</v>
@@ -3219,13 +3213,13 @@
         <v>273545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>494</v>
@@ -3234,13 +3228,13 @@
         <v>273545</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3313,13 @@
         <v>126017</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -3334,13 +3328,13 @@
         <v>126017</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3362,13 @@
         <v>476674</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M11" s="7">
         <v>744</v>
@@ -3383,13 +3377,13 @@
         <v>476674</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3462,13 @@
         <v>143851</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M13" s="7">
         <v>187</v>
@@ -3483,13 +3477,13 @@
         <v>143851</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>297473</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>423</v>
@@ -3532,13 +3526,13 @@
         <v>297473</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3611,13 @@
         <v>185303</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -3632,13 +3626,13 @@
         <v>185303</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3660,13 @@
         <v>496357</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>690</v>
@@ -3681,13 +3675,13 @@
         <v>496357</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3760,13 @@
         <v>504342</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>711</v>
@@ -3781,13 +3775,13 @@
         <v>504342</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3809,13 @@
         <v>1607853</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>2468</v>
@@ -3830,13 +3824,13 @@
         <v>1607853</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6254D3A2-66EA-4760-BA4A-BB6FCF629C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{891679E1-9A26-4F7A-8F65-C120881FA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96B1911E-797E-4159-9C37-5B4E7BD9DFF7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B910B5F1-7098-4B4B-94F2-E18D118CB5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="123">
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,13 +109,13 @@
     <t>13,68%</t>
   </si>
   <si>
-    <t>20,97%</t>
+    <t>21,19%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>79,03%</t>
+    <t>78,81%</t>
   </si>
   <si>
     <t>86,32%</t>
@@ -127,19 +127,19 @@
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -148,19 +148,19 @@
     <t>25,24%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,37 +169,37 @@
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -211,109 +211,109 @@
     <t>14,21%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
   </si>
   <si>
     <t>80,09%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -322,97 +322,91 @@
     <t>8,36%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>91,64%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>72,82%</t>
   </si>
   <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>25,69%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>74,31%</t>
   </si>
 </sst>
 </file>
@@ -824,7 +818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F8B24B-4A44-4F4F-AE18-E64A59BE4602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B955C5D0-515B-44B3-B786-90E223452E12}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1851,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361E8D19-EC57-4530-A3CE-40AA509BE1D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986B93D2-7450-4FA4-877B-76E6A734F246}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFD70ED-5822-4FC9-8895-04429F64211E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5862A3-84CD-4835-BCA2-BB8CED139FE9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3021,7 +3015,7 @@
         <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3036,7 +3030,7 @@
         <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3058,13 @@
         <v>63803</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>117</v>
@@ -3079,13 +3073,13 @@
         <v>63803</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,10 +3161,10 @@
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3182,10 +3176,10 @@
         <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3210,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>100</v>
@@ -3231,7 +3225,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>100</v>
@@ -3763,10 +3757,10 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>711</v>
@@ -3778,10 +3772,10 @@
         <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3803,13 @@
         <v>1607853</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="M20" s="7">
         <v>2468</v>
@@ -3824,13 +3818,13 @@
         <v>1607853</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891679E1-9A26-4F7A-8F65-C120881FA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D69A05-CB03-4668-957E-55A841306F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B910B5F1-7098-4B4B-94F2-E18D118CB5A1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{900091F6-9925-43A0-82B1-F8795F136344}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="108">
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -76,51 +76,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -142,7 +121,7 @@
     <t>75,4%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>25,24%</t>
@@ -208,40 +187,22 @@
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2016 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>13,88%</t>
@@ -283,9 +244,6 @@
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
     <t>22,9%</t>
   </si>
   <si>
@@ -295,9 +253,6 @@
     <t>77,1%</t>
   </si>
   <si>
-    <t>82,87%</t>
-  </si>
-  <si>
     <t>15,47%</t>
   </si>
   <si>
@@ -319,94 +274,94 @@
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
 </sst>
 </file>
@@ -818,8 +773,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B955C5D0-515B-44B3-B786-90E223452E12}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02514DD1-B95C-4E7C-ADE7-09C4400915E2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -949,10 +904,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="I4" s="7">
-        <v>13128</v>
+        <v>89220</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -964,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>13128</v>
+        <v>89220</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -998,10 +953,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>58</v>
+        <v>400</v>
       </c>
       <c r="I5" s="7">
-        <v>66545</v>
+        <v>431553</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1013,10 +968,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>58</v>
+        <v>400</v>
       </c>
       <c r="N5" s="7">
-        <v>66545</v>
+        <v>431553</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1047,10 +1002,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>482</v>
       </c>
       <c r="I6" s="7">
-        <v>79673</v>
+        <v>520773</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1062,10 +1017,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>69</v>
+        <v>482</v>
       </c>
       <c r="N6" s="7">
-        <v>79673</v>
+        <v>520773</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1098,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="I7" s="7">
-        <v>76092</v>
+        <v>214834</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1113,10 +1068,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="N7" s="7">
-        <v>76092</v>
+        <v>214834</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1147,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="I8" s="7">
-        <v>365008</v>
+        <v>561729</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1162,10 +1117,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>342</v>
+        <v>514</v>
       </c>
       <c r="N8" s="7">
-        <v>365008</v>
+        <v>561729</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1196,10 +1151,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>413</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>441100</v>
+        <v>776563</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1211,10 +1166,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>413</v>
+        <v>705</v>
       </c>
       <c r="N9" s="7">
-        <v>441100</v>
+        <v>776563</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1247,10 +1202,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="I10" s="7">
-        <v>214834</v>
+        <v>160802</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1262,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="N10" s="7">
-        <v>214834</v>
+        <v>160802</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1296,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="I11" s="7">
-        <v>561729</v>
+        <v>476362</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1311,10 +1266,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>514</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>561729</v>
+        <v>476362</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1345,10 +1300,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>705</v>
+        <v>573</v>
       </c>
       <c r="I12" s="7">
-        <v>776563</v>
+        <v>637164</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1360,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>705</v>
+        <v>573</v>
       </c>
       <c r="N12" s="7">
-        <v>776563</v>
+        <v>637164</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1396,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="I13" s="7">
-        <v>160802</v>
+        <v>190820</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1411,10 +1366,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="N13" s="7">
-        <v>160802</v>
+        <v>190820</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1445,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>435</v>
+        <v>587</v>
       </c>
       <c r="I14" s="7">
-        <v>476362</v>
+        <v>614715</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1460,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>435</v>
+        <v>587</v>
       </c>
       <c r="N14" s="7">
-        <v>476362</v>
+        <v>614715</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1494,10 +1449,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>573</v>
+        <v>764</v>
       </c>
       <c r="I15" s="7">
-        <v>637164</v>
+        <v>805535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1509,10 +1464,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>573</v>
+        <v>764</v>
       </c>
       <c r="N15" s="7">
-        <v>637164</v>
+        <v>805535</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1526,7 +1481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,34 +1500,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>177</v>
+        <v>588</v>
       </c>
       <c r="I16" s="7">
-        <v>190820</v>
+        <v>655675</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>177</v>
+        <v>588</v>
       </c>
       <c r="N16" s="7">
-        <v>190820</v>
+        <v>655675</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,34 +1549,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>587</v>
+        <v>1936</v>
       </c>
       <c r="I17" s="7">
-        <v>614715</v>
+        <v>2084359</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>587</v>
+        <v>1936</v>
       </c>
       <c r="N17" s="7">
-        <v>614715</v>
+        <v>2084359</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1643,10 +1598,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>764</v>
+        <v>2524</v>
       </c>
       <c r="I18" s="7">
-        <v>805535</v>
+        <v>2740034</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1658,10 +1613,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>764</v>
+        <v>2524</v>
       </c>
       <c r="N18" s="7">
-        <v>805535</v>
+        <v>2740034</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1674,165 +1629,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>588</v>
-      </c>
-      <c r="I19" s="7">
-        <v>655675</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>588</v>
-      </c>
-      <c r="N19" s="7">
-        <v>655675</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1936</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2084359</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1936</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2084359</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2524</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2740034</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2524</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2740034</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1845,8 +1650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986B93D2-7450-4FA4-877B-76E6A734F246}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87764A8-9D68-4596-89EE-197ED19303CD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1862,7 +1667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1976,34 +1781,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>12044</v>
+        <v>48545</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>12044</v>
+        <v>48545</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,34 +1830,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>75</v>
+        <v>445</v>
       </c>
       <c r="I5" s="7">
-        <v>72732</v>
+        <v>445522</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>75</v>
+        <v>445</v>
       </c>
       <c r="N5" s="7">
-        <v>72732</v>
+        <v>445522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,10 +1879,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>87</v>
+        <v>491</v>
       </c>
       <c r="I6" s="7">
-        <v>84776</v>
+        <v>494067</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2089,10 +1894,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>87</v>
+        <v>491</v>
       </c>
       <c r="N6" s="7">
-        <v>84776</v>
+        <v>494067</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2125,34 +1930,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I7" s="7">
-        <v>36502</v>
+        <v>117083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="N7" s="7">
-        <v>36502</v>
+        <v>117083</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,34 +1979,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>370</v>
+        <v>677</v>
       </c>
       <c r="I8" s="7">
-        <v>372790</v>
+        <v>726502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
-        <v>370</v>
+        <v>677</v>
       </c>
       <c r="N8" s="7">
-        <v>372790</v>
+        <v>726502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,10 +2028,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>404</v>
+        <v>789</v>
       </c>
       <c r="I9" s="7">
-        <v>409292</v>
+        <v>843585</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2238,10 +2043,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>404</v>
+        <v>789</v>
       </c>
       <c r="N9" s="7">
-        <v>409292</v>
+        <v>843585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2274,34 +2079,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>117083</v>
+        <v>97428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>117083</v>
+        <v>97428</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,34 +2128,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>677</v>
+        <v>476</v>
       </c>
       <c r="I11" s="7">
-        <v>726502</v>
+        <v>505363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>677</v>
+        <v>476</v>
       </c>
       <c r="N11" s="7">
-        <v>726502</v>
+        <v>505363</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,10 +2177,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>789</v>
+        <v>570</v>
       </c>
       <c r="I12" s="7">
-        <v>843585</v>
+        <v>602791</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2387,10 +2192,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>789</v>
+        <v>570</v>
       </c>
       <c r="N12" s="7">
-        <v>843585</v>
+        <v>602791</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2423,34 +2228,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>97428</v>
+        <v>166475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>97428</v>
+        <v>166475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,34 +2277,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>476</v>
+        <v>620</v>
       </c>
       <c r="I14" s="7">
-        <v>505363</v>
+        <v>669836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="M14" s="7">
-        <v>476</v>
+        <v>620</v>
       </c>
       <c r="N14" s="7">
-        <v>505363</v>
+        <v>669836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,10 +2326,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>570</v>
+        <v>772</v>
       </c>
       <c r="I15" s="7">
-        <v>602791</v>
+        <v>836311</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2536,10 +2341,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>570</v>
+        <v>772</v>
       </c>
       <c r="N15" s="7">
-        <v>602791</v>
+        <v>836311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2553,7 +2358,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2572,34 +2377,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>152</v>
+        <v>404</v>
       </c>
       <c r="I16" s="7">
-        <v>166475</v>
+        <v>429531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>404</v>
       </c>
       <c r="N16" s="7">
-        <v>166475</v>
+        <v>429531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,34 +2426,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>620</v>
+        <v>2218</v>
       </c>
       <c r="I17" s="7">
-        <v>669836</v>
+        <v>2347223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
-        <v>620</v>
+        <v>2218</v>
       </c>
       <c r="N17" s="7">
-        <v>669836</v>
+        <v>2347223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,10 +2475,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>772</v>
+        <v>2622</v>
       </c>
       <c r="I18" s="7">
-        <v>836311</v>
+        <v>2776754</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2685,10 +2490,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>772</v>
+        <v>2622</v>
       </c>
       <c r="N18" s="7">
-        <v>836311</v>
+        <v>2776754</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2701,165 +2506,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>404</v>
-      </c>
-      <c r="I19" s="7">
-        <v>429531</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>404</v>
-      </c>
-      <c r="N19" s="7">
-        <v>429531</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2218</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2347223</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2218</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2347223</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2622</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2776754</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2622</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2776754</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2872,8 +2527,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5862A3-84CD-4835-BCA2-BB8CED139FE9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8934A0C7-BCCF-48D0-8988-177EC2AADCBC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2889,7 +2544,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3003,34 +2658,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>5821</v>
+        <v>46941</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>5821</v>
+        <v>46941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,34 +2707,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>117</v>
+        <v>611</v>
       </c>
       <c r="I5" s="7">
-        <v>63803</v>
+        <v>315699</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
-        <v>117</v>
+        <v>611</v>
       </c>
       <c r="N5" s="7">
-        <v>63803</v>
+        <v>315699</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,10 +2756,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>129</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>69624</v>
+        <v>362640</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3116,10 +2771,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>695</v>
       </c>
       <c r="N6" s="7">
-        <v>69624</v>
+        <v>362640</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3152,34 +2807,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="I7" s="7">
-        <v>43350</v>
+        <v>116043</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="N7" s="7">
-        <v>43350</v>
+        <v>116043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,34 +2856,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="I8" s="7">
-        <v>273545</v>
+        <v>433019</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
-        <v>494</v>
+        <v>744</v>
       </c>
       <c r="N8" s="7">
-        <v>273545</v>
+        <v>433019</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,10 +2905,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>566</v>
+        <v>922</v>
       </c>
       <c r="I9" s="7">
-        <v>316895</v>
+        <v>549062</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3265,10 +2920,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>566</v>
+        <v>922</v>
       </c>
       <c r="N9" s="7">
-        <v>316895</v>
+        <v>549062</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3301,34 +2956,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>126017</v>
+        <v>133077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="N10" s="7">
-        <v>126017</v>
+        <v>133077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,34 +3005,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>744</v>
+        <v>423</v>
       </c>
       <c r="I11" s="7">
-        <v>476674</v>
+        <v>296208</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
-        <v>744</v>
+        <v>423</v>
       </c>
       <c r="N11" s="7">
-        <v>476674</v>
+        <v>296208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,10 +3054,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>922</v>
+        <v>610</v>
       </c>
       <c r="I12" s="7">
-        <v>602691</v>
+        <v>429285</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3414,10 +3069,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>922</v>
+        <v>610</v>
       </c>
       <c r="N12" s="7">
-        <v>602691</v>
+        <v>429285</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3450,34 +3105,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="I13" s="7">
-        <v>143851</v>
+        <v>171276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="N13" s="7">
-        <v>143851</v>
+        <v>171276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,34 +3154,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>423</v>
+        <v>690</v>
       </c>
       <c r="I14" s="7">
-        <v>297473</v>
+        <v>502542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>423</v>
+        <v>690</v>
       </c>
       <c r="N14" s="7">
-        <v>297473</v>
+        <v>502542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,10 +3203,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>610</v>
+        <v>952</v>
       </c>
       <c r="I15" s="7">
-        <v>441324</v>
+        <v>673818</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3563,10 +3218,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>610</v>
+        <v>952</v>
       </c>
       <c r="N15" s="7">
-        <v>441324</v>
+        <v>673818</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3580,7 +3235,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3599,34 +3254,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>262</v>
+        <v>711</v>
       </c>
       <c r="I16" s="7">
-        <v>185303</v>
+        <v>467337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
-        <v>262</v>
+        <v>711</v>
       </c>
       <c r="N16" s="7">
-        <v>185303</v>
+        <v>467337</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,34 +3303,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>690</v>
+        <v>2468</v>
       </c>
       <c r="I17" s="7">
-        <v>496357</v>
+        <v>1547468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>690</v>
+        <v>2468</v>
       </c>
       <c r="N17" s="7">
-        <v>496357</v>
+        <v>1547468</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,10 +3352,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>952</v>
+        <v>3179</v>
       </c>
       <c r="I18" s="7">
-        <v>681660</v>
+        <v>2014805</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3712,10 +3367,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>952</v>
+        <v>3179</v>
       </c>
       <c r="N18" s="7">
-        <v>681660</v>
+        <v>2014805</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3728,165 +3383,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>711</v>
-      </c>
-      <c r="I19" s="7">
-        <v>504342</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M19" s="7">
-        <v>711</v>
-      </c>
-      <c r="N19" s="7">
-        <v>504342</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2468</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1607853</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2468</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1607853</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3179</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2112195</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3179</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2112195</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
